--- a/utilities open street hor distances.xlsx
+++ b/utilities open street hor distances.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\michael-villaraza\dynamo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mottmac-my.sharepoint.com/personal/mike_villaraza_mottmac_com/Documents/Desktop/Misc/Dev (MV)/Dynamo/Utilities Offset Based on NSW Streets Opening Guidelines/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_E5DD54A78189107F7DC01CFDB96D103A1143BDDC" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D9735960-8DB7-4A07-A251-20413621B0E3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14475" windowHeight="15375"/>
+    <workbookView xWindow="28995" yWindow="3435" windowWidth="16005" windowHeight="16695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -248,9 +258,6 @@
     <t>S</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>Gs</t>
   </si>
   <si>
@@ -273,12 +280,15 @@
   </si>
   <si>
     <t>1000mm is just a placeholder. Exact distance to be negotiated with asset owners</t>
+  </si>
+  <si>
+    <t>SW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -701,11 +711,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:X131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,12 +742,12 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C2" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -777,7 +787,7 @@
         <v>71</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>10</v>
@@ -815,7 +825,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>0</v>
@@ -856,7 +866,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>1</v>
@@ -897,7 +907,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>2</v>
@@ -938,7 +948,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>3</v>
@@ -1061,7 +1071,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>6</v>
@@ -1184,7 +1194,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>9</v>
@@ -3652,7 +3662,7 @@
       <c r="O131"/>
     </row>
   </sheetData>
-  <sortState ref="G43:H97">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G43:H97">
     <sortCondition ref="G43:G97"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
